--- a/data/10_SchoolExp.xlsx
+++ b/data/10_SchoolExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/muireann_settle_education_gov_uk/Documents/Documents/Projects (R)/childrens_social_services_offenders_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E63A51059BF8470516CBC69D5BE898BE68FE639E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269C0430-65DC-4E41-B3BC-BC3BEFF48445}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E63A51059BF8470516CBC69D5BE898BE68FE639E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48B0D03-1FBC-4701-B39D-EBC1E2A0FF10}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="420" windowWidth="15330" windowHeight="12315" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS2_attain" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2814,9 +2816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H1201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -46693,8 +46702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/10_SchoolExp.xlsx
+++ b/data/10_SchoolExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk-my.sharepoint.com/personal/muireann_settle_education_gov_uk/Documents/Documents/Projects (R)/childrens_social_services_offenders_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E63A51059BF8470516CBC69D5BE898BE68FE639E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48B0D03-1FBC-4701-B39D-EBC1E2A0FF10}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_E63A51059BF8470516CBC69D5BE898BE68FE639E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038EC629-4391-4335-88FF-B49CDBE98831}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS2_attain" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,20 @@
     <sheet name="EHCP_timing" sheetId="21" r:id="rId21"/>
     <sheet name="SEMH_timing" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -362,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +385,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,17 +416,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2816,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -34056,9 +34079,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -35694,7 +35719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -35711,7 +35736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -35728,7 +35753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -35745,7 +35770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -35762,7 +35787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -35779,7 +35804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -35796,7 +35821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -35813,7 +35838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -35830,7 +35855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -35847,7 +35872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -35864,7 +35889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -35880,8 +35905,11 @@
       <c r="E107" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -35898,7 +35926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -35915,7 +35943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -35932,7 +35960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -35949,7 +35977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>13</v>
       </c>
